--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>№</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,7 +118,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
@@ -126,6 +129,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
         <v>24.0</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>№</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>А</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,9 +151,20 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24.0</v>
       </c>
     </row>
